--- a/Frankcrum-Project-master/Sid_FCGAProject/bin/Debug/AutmTestData.xlsx
+++ b/Frankcrum-Project-master/Sid_FCGAProject/bin/Debug/AutmTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6b49d1af728d787/Desktop/Test Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6b49d1af728d787/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{435DBDA1-C18E-4355-A411-225FDEE83B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A484E8E8-46D5-4834-916E-FB090A71AA13}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F5B560E586D50174FEA1BCC87640D97C2C156B35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{704BEE84-2F6E-4C3E-9628-752DD87A7CD0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1" xr2:uid="{DE7C2574-E5E6-4927-8C00-A04C69AB4499}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Autm TD" sheetId="3" r:id="rId1"/>
@@ -26,12 +26,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="508">
   <si>
     <t>StateName</t>
   </si>
@@ -911,9 +918,6 @@
     <t>Excess Option</t>
   </si>
   <si>
-    <t>No Excess</t>
-  </si>
-  <si>
     <t>70000</t>
   </si>
   <si>
@@ -983,9 +987,6 @@
     <t>FL</t>
   </si>
   <si>
-    <t>937756887</t>
-  </si>
-  <si>
     <t>9936767588</t>
   </si>
   <si>
@@ -995,9 +996,6 @@
     <t>654654645</t>
   </si>
   <si>
-    <t>08/03/2021</t>
-  </si>
-  <si>
     <t>GLUWPartAdmEmp</t>
   </si>
   <si>
@@ -1334,12 +1332,6 @@
     <t xml:space="preserve"> Do subcontractors working for the Applicant perform any work NOT associated with construction, service, repair, or remodeling of a building?</t>
   </si>
   <si>
-    <t>AUTM FCGA-674536782</t>
-  </si>
-  <si>
-    <t>AUTM FCGA-674536783</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Does applicant  perform any roofing, roof work, or any activity of any kind on any roof, including any construction, repair, maintenance, cleaning or inspection of any roof?</t>
   </si>
   <si>
@@ -1385,15 +1377,9 @@
     <t>UW_Backdated Eff date</t>
   </si>
   <si>
-    <t>09/15/2021</t>
-  </si>
-  <si>
     <t>GLAgEffective date</t>
   </si>
   <si>
-    <t>09/22/2021</t>
-  </si>
-  <si>
     <t>91111</t>
   </si>
   <si>
@@ -1475,48 +1461,12 @@
     <t>CG2005_CompanyName</t>
   </si>
   <si>
-    <t>CG2010</t>
-  </si>
-  <si>
-    <t>CG2037</t>
-  </si>
-  <si>
-    <t>CG1019</t>
-  </si>
-  <si>
-    <t>CG2404</t>
-  </si>
-  <si>
-    <t>CG2012</t>
-  </si>
-  <si>
-    <t>CG2029</t>
-  </si>
-  <si>
-    <t>CG2028</t>
-  </si>
-  <si>
-    <t>CG2024</t>
-  </si>
-  <si>
-    <t>CG2005</t>
-  </si>
-  <si>
-    <t>CG2011</t>
-  </si>
-  <si>
-    <t>C:\Users\SMishra\Documents\Automation\Frankcrum-Project-master_V4.0\Frankcrum-Project-master\Sid_FCGAProject\Uploaded File.txt</t>
-  </si>
-  <si>
     <t>SubcontractTypeWork</t>
   </si>
   <si>
     <t>Class Specific Xpath</t>
   </si>
   <si>
-    <t>C:\Users\SMishra\Documents\Automation\Frankcrum-Project-master_V3.0\Frankcrum-Project-master\Sid_FCGAProject\AutmTestData.xlsx</t>
-  </si>
-  <si>
     <t>Class Specific SheetName</t>
   </si>
   <si>
@@ -1551,6 +1501,72 @@
   </si>
   <si>
     <t>857556910</t>
+  </si>
+  <si>
+    <t>C:\Users\SMishra\Documents\Automation\Frankcrum-Project-master_V5.0\Frankcrum-Project-master\Sid_FCGAProject\Uploaded File.txt</t>
+  </si>
+  <si>
+    <t>Excess M-1</t>
+  </si>
+  <si>
+    <t>10/30/2021</t>
+  </si>
+  <si>
+    <t>09/29/2021</t>
+  </si>
+  <si>
+    <t>C:\Users\SMishra\Documents\Automation\Frankcrum-Project-master_V5.0\Frankcrum-Project-master\Sid_FCGAProject\AutmTestData.xlsx</t>
+  </si>
+  <si>
+    <t>9377568871</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536911</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536912</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536913</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536914</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536915</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536916</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536917</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536918</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536919</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536920</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536921</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536922</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536923</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536924</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536925</t>
+  </si>
+  <si>
+    <t>AUTM FCGA-674536926</t>
   </si>
 </sst>
 </file>
@@ -1765,16 +1781,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{62752154-7F94-4224-9F08-E0B76F86C8CD}"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FA2D1839-29E7-409C-8441-59914199F27C}"/>
-    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{DFD7D741-1820-4C60-8F89-17FFB607AE57}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{158732C2-CB0B-456B-A7CD-E0C4E5471C9B}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{1C93DA70-609E-46D9-8962-81787D8EC13C}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{D6AC8165-182C-44E0-A0D8-61B9D6D10949}"/>
-    <cellStyle name="Normal 6" xfId="7" xr:uid="{AE3438D8-1E24-44F4-904B-311B36BB2D97}"/>
-    <cellStyle name="Normal 7" xfId="8" xr:uid="{B7968138-178E-4C45-BF00-50E3BF47A4BF}"/>
-    <cellStyle name="Normal 8" xfId="9" xr:uid="{65F5EC4E-D063-4831-B996-6367120C410B}"/>
-    <cellStyle name="Normal 9" xfId="10" xr:uid="{BF467635-E4D3-40E8-B1A9-CB0B75B847C5}"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 8" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 9" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2085,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F41777-7D5D-4815-89D0-B5FC8168F9C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,11 +2143,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB28928-3780-4D4B-B32C-ECB61DDB59BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,30 +2155,30 @@
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="30.109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="22.44140625" customWidth="1"/>
     <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.33203125" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="16.33203125" customWidth="1"/>
     <col min="42" max="42" width="13.109375" customWidth="1"/>
     <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="24.21875" customWidth="1"/>
-    <col min="71" max="71" width="11.21875" customWidth="1"/>
+    <col min="65" max="65" width="24.33203125" customWidth="1"/>
+    <col min="71" max="71" width="11.33203125" customWidth="1"/>
     <col min="72" max="72" width="11.88671875" customWidth="1"/>
-    <col min="73" max="73" width="12.77734375" customWidth="1"/>
+    <col min="73" max="73" width="12.6640625" customWidth="1"/>
     <col min="86" max="86" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="14.33203125" customWidth="1"/>
     <col min="90" max="93" width="13.44140625" customWidth="1"/>
-    <col min="97" max="97" width="19.77734375" customWidth="1"/>
+    <col min="97" max="97" width="19.6640625" customWidth="1"/>
     <col min="98" max="98" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2276,7 +2292,7 @@
         <v>20</v>
       </c>
       <c r="AK1" s="6" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="AL1" s="6" t="s">
         <v>28</v>
@@ -2482,7 +2498,7 @@
         <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="H2" t="s">
         <v>74</v>
@@ -2525,7 +2541,7 @@
         <v>79</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V2" t="s">
         <v>80</v>
@@ -2633,7 +2649,7 @@
         <v>89</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE2" s="2" t="s">
         <v>139</v>
@@ -2687,7 +2703,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU2" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV2" s="2" t="s">
         <v>97</v>
@@ -2778,7 +2794,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="H3" t="s">
         <v>102</v>
@@ -2821,7 +2837,7 @@
         <v>79</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V3" t="s">
         <v>80</v>
@@ -2863,7 +2879,7 @@
         <v>159</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ3">
         <v>14536</v>
@@ -2929,7 +2945,7 @@
         <v>89</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE3" s="2" t="s">
         <v>139</v>
@@ -2983,7 +2999,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU3" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV3" s="2" t="s">
         <v>97</v>
@@ -3074,7 +3090,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="H4" t="s">
         <v>122</v>
@@ -3117,7 +3133,7 @@
         <v>79</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V4" t="s">
         <v>80</v>
@@ -3225,7 +3241,7 @@
         <v>89</v>
       </c>
       <c r="BD4" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE4" s="2" t="s">
         <v>139</v>
@@ -3279,7 +3295,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU4" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV4" s="2" t="s">
         <v>97</v>
@@ -3370,7 +3386,7 @@
         <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="H5" t="s">
         <v>142</v>
@@ -3413,7 +3429,7 @@
         <v>79</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V5" t="s">
         <v>80</v>
@@ -3521,7 +3537,7 @@
         <v>89</v>
       </c>
       <c r="BD5" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE5" s="2" t="s">
         <v>139</v>
@@ -3575,7 +3591,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU5" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV5" s="2" t="s">
         <v>97</v>
@@ -3666,7 +3682,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="H6" t="s">
         <v>74</v>
@@ -3709,7 +3725,7 @@
         <v>79</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V6" t="s">
         <v>80</v>
@@ -3817,7 +3833,7 @@
         <v>89</v>
       </c>
       <c r="BD6" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE6" s="2" t="s">
         <v>139</v>
@@ -3871,7 +3887,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV6" s="2" t="s">
         <v>97</v>
@@ -3962,7 +3978,7 @@
         <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="H7" t="s">
         <v>102</v>
@@ -4005,7 +4021,7 @@
         <v>79</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V7" t="s">
         <v>80</v>
@@ -4047,7 +4063,7 @@
         <v>159</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ7">
         <v>14536</v>
@@ -4113,7 +4129,7 @@
         <v>89</v>
       </c>
       <c r="BD7" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE7" s="2" t="s">
         <v>139</v>
@@ -4167,7 +4183,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV7" s="2" t="s">
         <v>97</v>
@@ -4258,7 +4274,7 @@
         <v>73</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="H8" t="s">
         <v>122</v>
@@ -4301,7 +4317,7 @@
         <v>79</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V8" t="s">
         <v>80</v>
@@ -4409,7 +4425,7 @@
         <v>89</v>
       </c>
       <c r="BD8" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE8" s="2" t="s">
         <v>139</v>
@@ -4463,7 +4479,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU8" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV8" s="2" t="s">
         <v>97</v>
@@ -4554,7 +4570,7 @@
         <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="H9" t="s">
         <v>142</v>
@@ -4597,7 +4613,7 @@
         <v>79</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V9" t="s">
         <v>80</v>
@@ -4705,7 +4721,7 @@
         <v>89</v>
       </c>
       <c r="BD9" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE9" s="2" t="s">
         <v>139</v>
@@ -4759,7 +4775,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU9" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV9" s="2" t="s">
         <v>97</v>
@@ -4850,7 +4866,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -4893,7 +4909,7 @@
         <v>79</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V10" t="s">
         <v>80</v>
@@ -4935,7 +4951,7 @@
         <v>159</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AJ10">
         <v>14536</v>
@@ -5001,7 +5017,7 @@
         <v>89</v>
       </c>
       <c r="BD10" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE10" s="2" t="s">
         <v>139</v>
@@ -5055,7 +5071,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU10" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV10" s="2" t="s">
         <v>97</v>
@@ -5146,7 +5162,7 @@
         <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="H11" t="s">
         <v>74</v>
@@ -5189,7 +5205,7 @@
         <v>79</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="V11" t="s">
         <v>80</v>
@@ -5297,7 +5313,7 @@
         <v>89</v>
       </c>
       <c r="BD11" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BE11" s="2" t="s">
         <v>139</v>
@@ -5351,7 +5367,7 @@
         <v>07/01/2021</v>
       </c>
       <c r="BU11" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BV11" s="2" t="s">
         <v>97</v>
@@ -5444,48 +5460,158 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC365FCE-5714-4611-9AE9-E313B98F257F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FT26"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BJ8" sqref="BJ8"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="15" style="9" customWidth="1"/>
-    <col min="3" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="8" width="12" style="9" customWidth="1"/>
-    <col min="9" max="10" width="15.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="15.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" style="9" customWidth="1"/>
-    <col min="16" max="21" width="8.88671875" style="9"/>
-    <col min="22" max="22" width="14.5546875" style="9" customWidth="1"/>
-    <col min="23" max="37" width="8.88671875" style="9"/>
-    <col min="38" max="38" width="12.109375" style="9" customWidth="1"/>
-    <col min="39" max="39" width="19.21875" style="9" customWidth="1"/>
-    <col min="40" max="43" width="8.88671875" style="9"/>
-    <col min="44" max="44" width="10.33203125" style="9" customWidth="1"/>
-    <col min="45" max="59" width="8.88671875" style="9"/>
-    <col min="60" max="60" width="18.33203125" style="9" customWidth="1"/>
-    <col min="61" max="61" width="8.88671875" style="9"/>
-    <col min="62" max="62" width="19.88671875" style="9" customWidth="1"/>
-    <col min="63" max="68" width="8.88671875" style="9"/>
-    <col min="69" max="69" width="24.88671875" style="9" customWidth="1"/>
-    <col min="70" max="70" width="16.6640625" style="9" customWidth="1"/>
-    <col min="71" max="130" width="8.88671875" style="9"/>
-    <col min="131" max="131" width="11.5546875" style="9" customWidth="1"/>
-    <col min="132" max="146" width="8.88671875" style="9"/>
-    <col min="147" max="147" width="12" style="9" customWidth="1"/>
-    <col min="148" max="148" width="18.77734375" style="9" customWidth="1"/>
-    <col min="149" max="159" width="19.109375" style="9" customWidth="1"/>
-    <col min="160" max="174" width="8.88671875" style="9"/>
-    <col min="175" max="175" width="13.33203125" style="9" customWidth="1"/>
-    <col min="176" max="176" width="17.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.33203125" style="9" customWidth="1"/>
+    <col min="40" max="43" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="48" max="56" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="27.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="128.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24" style="9" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="16.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.88671875" style="9"/>
+    <col min="83" max="83" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="29.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="28.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="26" style="9" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="17.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="17.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="100" max="103" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="105" max="106" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="108" max="116" width="10.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="21.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="20.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="14.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="15.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="15.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="133" max="134" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="11.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="19.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="12.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="20.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="18.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="22.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="23.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="153" max="159" width="22.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="21.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="25.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="22.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="25.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="31.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="17.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="27" style="9" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="30.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="23.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="23.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="16" style="9" bestFit="1" customWidth="1"/>
     <col min="177" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
@@ -5518,7 +5644,7 @@
         <v>166</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>168</v>
@@ -5674,10 +5800,10 @@
         <v>205</v>
       </c>
       <c r="BJ1" s="7" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="BK1" s="7" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="BL1" s="7" t="s">
         <v>288</v>
@@ -5698,7 +5824,7 @@
         <v>208</v>
       </c>
       <c r="BR1" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="BS1" s="7" t="s">
         <v>209</v>
@@ -5758,13 +5884,13 @@
         <v>224</v>
       </c>
       <c r="CL1" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="CM1" s="7" t="s">
         <v>225</v>
       </c>
       <c r="CN1" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="CO1" s="7" t="s">
         <v>226</v>
@@ -5785,7 +5911,7 @@
         <v>231</v>
       </c>
       <c r="CU1" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="CV1" s="7" t="s">
         <v>235</v>
@@ -5881,136 +6007,136 @@
         <v>106</v>
       </c>
       <c r="EA1" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="EB1" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EC1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="ED1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="EE1" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EF1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="EG1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="EH1" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="EI1" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EK1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EL1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EM1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EN1" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EO1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="EP1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="EP1" s="7" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="ER1" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="ER1" s="7" t="s">
+      <c r="ES1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="ES1" s="7" t="s">
-        <v>312</v>
-      </c>
       <c r="ET1" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="EU1" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="EV1" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="EW1" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="EX1" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="EY1" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="EZ1" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="FA1" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="FB1" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="EV1" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="EW1" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="EX1" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="EY1" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="EZ1" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="FA1" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="FB1" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="FC1" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="FD1" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="FE1" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="FF1" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="FG1" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="FH1" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="FI1" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="FJ1" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="FK1" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="FL1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="FF1" s="7" t="s">
+      <c r="FM1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="FG1" s="7" t="s">
+      <c r="FN1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="FH1" s="7" t="s">
+      <c r="FO1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="FI1" s="7" t="s">
+      <c r="FP1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="FJ1" s="7" t="s">
+      <c r="FQ1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="FK1" s="7" t="s">
+      <c r="FR1" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="FL1" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="FM1" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="FN1" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="FO1" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="FP1" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="FQ1" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="FR1" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="FS1" s="7" t="s">
         <v>70</v>
@@ -6019,7 +6145,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:176" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -6045,10 +6171,10 @@
         <v>165</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>167</v>
@@ -6078,13 +6204,13 @@
         <v>171</v>
       </c>
       <c r="T2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="W2" s="9">
         <v>100</v>
@@ -6144,10 +6270,10 @@
         <v>171</v>
       </c>
       <c r="AS2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="9">
         <v>0</v>
@@ -6180,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="BE2" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BF2" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BG2" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>277</v>
@@ -6195,10 +6321,10 @@
         <v>278</v>
       </c>
       <c r="BJ2" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BK2" s="27" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="BL2" s="9" t="s">
         <v>167</v>
@@ -6215,11 +6341,9 @@
       <c r="BP2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="BQ2" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="BR2" s="9" t="s">
-        <v>449</v>
+      <c r="BQ2" s="10" t="str">
+        <f>I2</f>
+        <v>AUTM FCGA-674536911</v>
       </c>
       <c r="BS2" s="9" t="s">
         <v>167</v>
@@ -6249,10 +6373,10 @@
         <v>171</v>
       </c>
       <c r="CB2" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="9">
         <v>91111</v>
@@ -6315,10 +6439,10 @@
         <v>171</v>
       </c>
       <c r="DA2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB2" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC2" s="9">
         <v>0</v>
@@ -6351,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="DM2" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="DN2" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="DO2" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="DP2" s="9" t="s">
         <v>279</v>
@@ -6387,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="DY2" s="9" t="s">
-        <v>291</v>
+        <v>487</v>
       </c>
       <c r="DZ2" s="9" t="s">
         <v>84</v>
@@ -6411,19 +6535,19 @@
         <v>128</v>
       </c>
       <c r="EG2" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI2" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ2" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="EH2" s="11" t="s">
+      <c r="EK2" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="EI2" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="EJ2" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="EK2" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="EL2" s="10" t="s">
         <v>5</v>
@@ -6438,10 +6562,10 @@
         <v>128</v>
       </c>
       <c r="EP2" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="EQ2" s="11" t="s">
-        <v>319</v>
+        <v>488</v>
       </c>
       <c r="ER2" s="10" t="s">
         <v>167</v>
@@ -6449,38 +6573,18 @@
       <c r="ES2" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="ET2" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="EU2" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="EV2" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="EW2" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="EX2" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="EY2" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="EZ2" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="FA2" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="FB2" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="FC2" s="10" t="s">
-        <v>488</v>
-      </c>
+      <c r="ET2" s="10"/>
+      <c r="EU2" s="10"/>
+      <c r="EV2" s="10"/>
+      <c r="EW2" s="10"/>
+      <c r="EX2" s="10"/>
+      <c r="EY2" s="10"/>
+      <c r="EZ2" s="10"/>
+      <c r="FA2" s="10"/>
+      <c r="FB2" s="10"/>
+      <c r="FC2" s="10"/>
       <c r="FD2" s="26" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="FE2" s="26">
         <v>78575876</v>
@@ -6531,7 +6635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:176" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -6557,10 +6661,10 @@
         <v>165</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>167</v>
@@ -6590,13 +6694,13 @@
         <v>171</v>
       </c>
       <c r="T3" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="W3" s="9">
         <v>100</v>
@@ -6656,10 +6760,10 @@
         <v>171</v>
       </c>
       <c r="AS3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="9">
         <v>0</v>
@@ -6692,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="BE3" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BF3" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BG3" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BH3" s="9" t="s">
         <v>277</v>
@@ -6707,10 +6811,10 @@
         <v>278</v>
       </c>
       <c r="BJ3" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BK3" s="27" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="BL3" s="9" t="s">
         <v>167</v>
@@ -6727,11 +6831,9 @@
       <c r="BP3" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="BQ3" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="BR3" s="9" t="s">
-        <v>449</v>
+      <c r="BQ3" s="10" t="str">
+        <f t="shared" ref="BQ3:BQ17" si="0">I3</f>
+        <v>AUTM FCGA-674536912</v>
       </c>
       <c r="BS3" s="9" t="s">
         <v>167</v>
@@ -6761,10 +6863,10 @@
         <v>171</v>
       </c>
       <c r="CB3" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="9">
         <v>91111</v>
@@ -6827,10 +6929,10 @@
         <v>171</v>
       </c>
       <c r="DA3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB3" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC3" s="9">
         <v>0</v>
@@ -6863,13 +6965,13 @@
         <v>0</v>
       </c>
       <c r="DM3" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="DN3" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="DO3" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="DP3" s="9" t="s">
         <v>279</v>
@@ -6899,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="DY3" s="9" t="s">
-        <v>291</v>
+        <v>487</v>
       </c>
       <c r="DZ3" s="9" t="s">
         <v>84</v>
@@ -6923,19 +7025,19 @@
         <v>128</v>
       </c>
       <c r="EG3" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH3" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI3" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ3" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="EH3" s="11" t="s">
+      <c r="EK3" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="EI3" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="EJ3" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="EK3" s="11" t="s">
-        <v>318</v>
       </c>
       <c r="EL3" s="10" t="s">
         <v>5</v>
@@ -6950,10 +7052,10 @@
         <v>128</v>
       </c>
       <c r="EP3" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="EQ3" s="11" t="s">
-        <v>319</v>
+        <v>488</v>
       </c>
       <c r="ER3" s="10" t="s">
         <v>167</v>
@@ -6961,38 +7063,18 @@
       <c r="ES3" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="ET3" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="EU3" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="EV3" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="EW3" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="EX3" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="EY3" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="EZ3" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="FA3" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="FB3" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="FC3" s="10" t="s">
-        <v>488</v>
-      </c>
+      <c r="ET3" s="10"/>
+      <c r="EU3" s="10"/>
+      <c r="EV3" s="10"/>
+      <c r="EW3" s="10"/>
+      <c r="EX3" s="10"/>
+      <c r="EY3" s="10"/>
+      <c r="EZ3" s="10"/>
+      <c r="FA3" s="10"/>
+      <c r="FB3" s="10"/>
+      <c r="FC3" s="10"/>
       <c r="FD3" s="26" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="FE3" s="26">
         <v>78575876</v>
@@ -7043,49 +7125,6889 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:176" x14ac:dyDescent="0.3">
-      <c r="EU4" s="26"/>
-      <c r="EV4" s="26"/>
-      <c r="EW4" s="26"/>
-      <c r="EX4" s="26"/>
-      <c r="EY4" s="26"/>
-      <c r="EZ4" s="26"/>
-      <c r="FA4" s="26"/>
-      <c r="FB4" s="26"/>
-      <c r="FC4" s="26"/>
+    <row r="4" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W4" s="9">
+        <v>100</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF4" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ4" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK4" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536913</v>
+      </c>
+      <c r="BS4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT4" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE4" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF4" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM4" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ4" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR4" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS4" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT4" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU4" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX4" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN4" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO4" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ4" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU4" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV4" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX4" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG4" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH4" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI4" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ4" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK4" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ4" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET4" s="10"/>
+      <c r="EU4" s="10"/>
+      <c r="EV4" s="10"/>
+      <c r="EW4" s="10"/>
+      <c r="EX4" s="10"/>
+      <c r="EY4" s="10"/>
+      <c r="EZ4" s="10"/>
+      <c r="FA4" s="10"/>
+      <c r="FB4" s="10"/>
+      <c r="FC4" s="10"/>
+      <c r="FD4" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE4" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF4" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG4" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN4" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR4" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS4" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT4" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="14" spans="1:176" x14ac:dyDescent="0.3">
-      <c r="EE14" s="12"/>
+    <row r="5" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W5" s="9">
+        <v>100</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF5" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ5" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK5" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536914</v>
+      </c>
+      <c r="BS5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE5" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF5" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ5" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR5" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS5" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN5" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO5" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP5" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ5" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT5" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU5" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV5" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX5" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG5" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH5" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ5" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK5" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN5" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP5" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ5" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET5" s="10"/>
+      <c r="EU5" s="10"/>
+      <c r="EV5" s="10"/>
+      <c r="EW5" s="10"/>
+      <c r="EX5" s="10"/>
+      <c r="EY5" s="10"/>
+      <c r="EZ5" s="10"/>
+      <c r="FA5" s="10"/>
+      <c r="FB5" s="10"/>
+      <c r="FC5" s="10"/>
+      <c r="FD5" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE5" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF5" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG5" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN5" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ5" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS5" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT5" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="15" spans="1:176" x14ac:dyDescent="0.3">
-      <c r="FF15" s="26"/>
+    <row r="6" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W6" s="9">
+        <v>100</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ6" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK6" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536915</v>
+      </c>
+      <c r="BS6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX6" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE6" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF6" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ6" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR6" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS6" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT6" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO6" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP6" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ6" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU6" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV6" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX6" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG6" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH6" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI6" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ6" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK6" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN6" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO6" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP6" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ6" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET6" s="10"/>
+      <c r="EU6" s="10"/>
+      <c r="EV6" s="10"/>
+      <c r="EW6" s="10"/>
+      <c r="EX6" s="10"/>
+      <c r="EY6" s="10"/>
+      <c r="EZ6" s="10"/>
+      <c r="FA6" s="10"/>
+      <c r="FB6" s="10"/>
+      <c r="FC6" s="10"/>
+      <c r="FD6" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE6" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF6" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG6" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN6" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ6" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS6" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT6" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="135:162" x14ac:dyDescent="0.3">
-      <c r="FF17" s="26"/>
+    <row r="7" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W7" s="9">
+        <v>100</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF7" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG7" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH7" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ7" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK7" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536916</v>
+      </c>
+      <c r="BS7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX7" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE7" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF7" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP7" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ7" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR7" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS7" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT7" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU7" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN7" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO7" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP7" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ7" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU7" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV7" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX7" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG7" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH7" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI7" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ7" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK7" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN7" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP7" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ7" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET7" s="10"/>
+      <c r="EU7" s="10"/>
+      <c r="EV7" s="10"/>
+      <c r="EW7" s="10"/>
+      <c r="EX7" s="10"/>
+      <c r="EY7" s="10"/>
+      <c r="EZ7" s="10"/>
+      <c r="FA7" s="10"/>
+      <c r="FB7" s="10"/>
+      <c r="FC7" s="10"/>
+      <c r="FD7" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE7" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF7" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG7" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN7" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ7" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS7" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT7" s="9" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="18" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W8" s="9">
+        <v>100</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH8" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ8" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK8" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536917</v>
+      </c>
+      <c r="BS8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT8" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU8" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX8" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE8" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF8" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG8" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM8" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO8" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ8" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR8" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS8" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT8" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP8" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ8" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU8" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV8" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX8" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY8" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG8" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH8" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI8" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK8" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN8" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO8" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP8" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ8" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET8" s="10"/>
+      <c r="EU8" s="10"/>
+      <c r="EV8" s="10"/>
+      <c r="EW8" s="10"/>
+      <c r="EX8" s="10"/>
+      <c r="EY8" s="10"/>
+      <c r="EZ8" s="10"/>
+      <c r="FA8" s="10"/>
+      <c r="FB8" s="10"/>
+      <c r="FC8" s="10"/>
+      <c r="FD8" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE8" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF8" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG8" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN8" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ8" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS8" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT8" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W9" s="9">
+        <v>100</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF9" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ9" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK9" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536918</v>
+      </c>
+      <c r="BS9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT9" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX9" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE9" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF9" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM9" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO9" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ9" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR9" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS9" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT9" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU9" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN9" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP9" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ9" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU9" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV9" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX9" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY9" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG9" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH9" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI9" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ9" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK9" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP9" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ9" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES9" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET9" s="10"/>
+      <c r="EU9" s="10"/>
+      <c r="EV9" s="10"/>
+      <c r="EW9" s="10"/>
+      <c r="EX9" s="10"/>
+      <c r="EY9" s="10"/>
+      <c r="EZ9" s="10"/>
+      <c r="FA9" s="10"/>
+      <c r="FB9" s="10"/>
+      <c r="FC9" s="10"/>
+      <c r="FD9" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE9" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF9" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG9" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN9" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS9" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W10" s="9">
+        <v>100</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF10" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH10" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ10" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK10" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536919</v>
+      </c>
+      <c r="BS10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT10" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE10" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF10" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG10" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN10" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO10" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ10" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR10" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS10" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT10" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU10" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX10" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN10" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP10" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ10" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU10" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV10" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW10" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX10" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY10" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG10" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH10" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI10" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ10" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK10" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP10" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ10" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET10" s="10"/>
+      <c r="EU10" s="10"/>
+      <c r="EV10" s="10"/>
+      <c r="EW10" s="10"/>
+      <c r="EX10" s="10"/>
+      <c r="EY10" s="10"/>
+      <c r="EZ10" s="10"/>
+      <c r="FA10" s="10"/>
+      <c r="FB10" s="10"/>
+      <c r="FC10" s="10"/>
+      <c r="FD10" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE10" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF10" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG10" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN10" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ10" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR10" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS10" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT10" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W11" s="9">
+        <v>100</v>
+      </c>
+      <c r="X11" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF11" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH11" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ11" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK11" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP11" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536920</v>
+      </c>
+      <c r="BS11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT11" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE11" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF11" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG11" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL11" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM11" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN11" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO11" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ11" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR11" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS11" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT11" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX11" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN11" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO11" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP11" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU11" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV11" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX11" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY11" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG11" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH11" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI11" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ11" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK11" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN11" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP11" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ11" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES11" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET11" s="10"/>
+      <c r="EU11" s="10"/>
+      <c r="EV11" s="10"/>
+      <c r="EW11" s="10"/>
+      <c r="EX11" s="10"/>
+      <c r="EY11" s="10"/>
+      <c r="EZ11" s="10"/>
+      <c r="FA11" s="10"/>
+      <c r="FB11" s="10"/>
+      <c r="FC11" s="10"/>
+      <c r="FD11" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE11" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF11" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG11" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN11" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ11" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR11" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS11" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT11" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W12" s="9">
+        <v>100</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF12" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH12" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI12" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ12" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK12" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536921</v>
+      </c>
+      <c r="BS12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT12" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE12" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF12" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG12" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL12" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM12" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN12" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO12" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ12" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR12" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS12" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT12" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN12" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO12" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP12" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ12" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT12" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU12" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV12" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX12" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY12" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG12" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH12" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI12" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ12" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK12" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN12" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP12" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ12" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET12" s="10"/>
+      <c r="EU12" s="10"/>
+      <c r="EV12" s="10"/>
+      <c r="EW12" s="10"/>
+      <c r="EX12" s="10"/>
+      <c r="EY12" s="10"/>
+      <c r="EZ12" s="10"/>
+      <c r="FA12" s="10"/>
+      <c r="FB12" s="10"/>
+      <c r="FC12" s="10"/>
+      <c r="FD12" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE12" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF12" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG12" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN12" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ12" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR12" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS12" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT12" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W13" s="9">
+        <v>100</v>
+      </c>
+      <c r="X13" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF13" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG13" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH13" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI13" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ13" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK13" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP13" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536922</v>
+      </c>
+      <c r="BS13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT13" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU13" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE13" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF13" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG13" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL13" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM13" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN13" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO13" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP13" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ13" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR13" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS13" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT13" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU13" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX13" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM13" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN13" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO13" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP13" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ13" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT13" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU13" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV13" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX13" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG13" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH13" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI13" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ13" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK13" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP13" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ13" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET13" s="10"/>
+      <c r="EU13" s="10"/>
+      <c r="EV13" s="10"/>
+      <c r="EW13" s="10"/>
+      <c r="EX13" s="10"/>
+      <c r="EY13" s="10"/>
+      <c r="EZ13" s="10"/>
+      <c r="FA13" s="10"/>
+      <c r="FB13" s="10"/>
+      <c r="FC13" s="10"/>
+      <c r="FD13" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE13" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF13" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG13" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN13" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR13" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS13" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT13" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="9">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W14" s="9">
+        <v>100</v>
+      </c>
+      <c r="X14" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL14" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF14" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG14" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH14" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI14" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ14" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK14" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP14" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536923</v>
+      </c>
+      <c r="BS14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT14" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU14" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX14" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD14" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE14" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF14" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG14" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK14" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL14" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM14" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN14" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO14" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP14" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ14" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR14" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS14" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT14" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU14" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ14" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM14" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN14" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO14" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP14" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ14" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT14" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU14" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV14" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX14" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY14" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ14" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG14" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH14" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ14" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK14" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP14" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ14" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES14" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET14" s="10"/>
+      <c r="EU14" s="10"/>
+      <c r="EV14" s="10"/>
+      <c r="EW14" s="10"/>
+      <c r="EX14" s="10"/>
+      <c r="EY14" s="10"/>
+      <c r="EZ14" s="10"/>
+      <c r="FA14" s="10"/>
+      <c r="FB14" s="10"/>
+      <c r="FC14" s="10"/>
+      <c r="FD14" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE14" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF14" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG14" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN14" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ14" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR14" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS14" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT14" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>1</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W15" s="9">
+        <v>100</v>
+      </c>
+      <c r="X15" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI15" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL15" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF15" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG15" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ15" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK15" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536924</v>
+      </c>
+      <c r="BS15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT15" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU15" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD15" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE15" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF15" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG15" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK15" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL15" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM15" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN15" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO15" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP15" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ15" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR15" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS15" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT15" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU15" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX15" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ15" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM15" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN15" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO15" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP15" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ15" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT15" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU15" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV15" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX15" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY15" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG15" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH15" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI15" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ15" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK15" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP15" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ15" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES15" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET15" s="10"/>
+      <c r="EU15" s="10"/>
+      <c r="EV15" s="10"/>
+      <c r="EW15" s="10"/>
+      <c r="EX15" s="10"/>
+      <c r="EY15" s="10"/>
+      <c r="EZ15" s="10"/>
+      <c r="FA15" s="10"/>
+      <c r="FB15" s="10"/>
+      <c r="FC15" s="10"/>
+      <c r="FD15" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE15" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF15" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG15" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN15" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ15" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR15" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS15" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT15" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W16" s="9">
+        <v>100</v>
+      </c>
+      <c r="X16" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF16" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG16" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH16" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI16" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ16" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK16" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536925</v>
+      </c>
+      <c r="BS16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT16" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU16" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD16" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE16" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF16" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG16" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK16" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL16" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM16" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN16" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO16" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ16" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR16" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS16" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT16" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX16" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ16" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM16" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN16" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO16" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP16" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ16" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT16" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU16" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV16" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX16" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY16" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG16" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH16" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI16" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ16" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK16" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP16" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ16" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET16" s="10"/>
+      <c r="EU16" s="10"/>
+      <c r="EV16" s="10"/>
+      <c r="EW16" s="10"/>
+      <c r="EX16" s="10"/>
+      <c r="EY16" s="10"/>
+      <c r="EZ16" s="10"/>
+      <c r="FA16" s="10"/>
+      <c r="FB16" s="10"/>
+      <c r="FC16" s="10"/>
+      <c r="FD16" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE16" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF16" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG16" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN16" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ16" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR16" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS16" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:176" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="W17" s="9">
+        <v>100</v>
+      </c>
+      <c r="X17" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="9">
+        <v>30000</v>
+      </c>
+      <c r="AF17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AI17" s="9">
+        <v>10</v>
+      </c>
+      <c r="AJ17" s="9">
+        <v>5</v>
+      </c>
+      <c r="AK17" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="9">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF17" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="BG17" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="BH17" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI17" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="BJ17" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="BK17" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="BN17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="BP17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="BQ17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AUTM FCGA-674536926</v>
+      </c>
+      <c r="BS17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT17" s="9">
+        <v>2</v>
+      </c>
+      <c r="BU17" s="9">
+        <v>1</v>
+      </c>
+      <c r="BV17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX17" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD17" s="9">
+        <v>91111</v>
+      </c>
+      <c r="CE17" s="9">
+        <v>100</v>
+      </c>
+      <c r="CF17" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="CG17" s="9">
+        <v>0</v>
+      </c>
+      <c r="CK17" s="9">
+        <v>1</v>
+      </c>
+      <c r="CL17" s="9">
+        <v>1</v>
+      </c>
+      <c r="CM17" s="9">
+        <v>30000</v>
+      </c>
+      <c r="CN17" s="9">
+        <v>1</v>
+      </c>
+      <c r="CO17" s="9">
+        <v>1</v>
+      </c>
+      <c r="CP17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CQ17" s="9">
+        <v>10</v>
+      </c>
+      <c r="CR17" s="9">
+        <v>5</v>
+      </c>
+      <c r="CS17" s="9">
+        <v>3</v>
+      </c>
+      <c r="CT17" s="9">
+        <v>2</v>
+      </c>
+      <c r="CU17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="CV17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CW17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX17" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="CY17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ17" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="DA17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DB17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DD17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DE17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DF17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DG17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DH17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DI17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DJ17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DK17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DL17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DM17" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DN17" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="DO17" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="DP17" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="DQ17" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="DR17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DS17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DT17" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="DU17" s="9">
+        <v>2.13</v>
+      </c>
+      <c r="DV17" s="9">
+        <v>3</v>
+      </c>
+      <c r="DW17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="DX17" s="9">
+        <v>0</v>
+      </c>
+      <c r="DY17" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="DZ17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="EA17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="EB17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="ED17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EE17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EF17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EG17" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="EH17" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="EI17" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="EJ17" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="EK17" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="EL17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="EM17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="EN17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="EO17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="EP17" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="EQ17" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="ER17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ES17" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET17" s="10"/>
+      <c r="EU17" s="10"/>
+      <c r="EV17" s="10"/>
+      <c r="EW17" s="10"/>
+      <c r="EX17" s="10"/>
+      <c r="EY17" s="10"/>
+      <c r="EZ17" s="10"/>
+      <c r="FA17" s="10"/>
+      <c r="FB17" s="10"/>
+      <c r="FC17" s="10"/>
+      <c r="FD17" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="FE17" s="26">
+        <v>78575876</v>
+      </c>
+      <c r="FF17" s="26">
+        <v>100</v>
+      </c>
+      <c r="FG17" s="26">
+        <v>100</v>
+      </c>
+      <c r="FH17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FI17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FJ17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FK17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FL17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FM17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN17" s="26">
+        <v>456781</v>
+      </c>
+      <c r="FO17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FP17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FQ17" s="9">
+        <v>12</v>
+      </c>
+      <c r="FR17" s="9">
+        <v>0</v>
+      </c>
+      <c r="FS17" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="FT17" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF18" s="26"/>
     </row>
-    <row r="19" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF19" s="26"/>
     </row>
-    <row r="20" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF20" s="26"/>
     </row>
-    <row r="21" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:176" x14ac:dyDescent="0.3">
       <c r="EE21" s="13"/>
       <c r="FF21" s="26"/>
     </row>
-    <row r="23" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF23" s="26"/>
     </row>
-    <row r="24" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF24" s="26"/>
     </row>
-    <row r="25" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF25" s="26"/>
     </row>
-    <row r="26" spans="135:162" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:176" x14ac:dyDescent="0.3">
       <c r="FF26" s="26"/>
     </row>
   </sheetData>
@@ -7095,7 +14017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7932169-27E9-4B7E-AB89-3F8F690BAF6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7111,16 +14033,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7128,10 +14050,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
         <v>203</v>
@@ -7142,10 +14064,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>203</v>
@@ -7156,10 +14078,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
         <v>203</v>
@@ -7170,10 +14092,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
         <v>203</v>
@@ -7184,10 +14106,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7198,7 +14120,7 @@
         <v>91127</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7209,7 +14131,7 @@
         <v>91150</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7217,10 +14139,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7231,7 +14153,7 @@
         <v>91155</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7239,10 +14161,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7253,7 +14175,7 @@
         <v>91315</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7264,7 +14186,7 @@
         <v>91343</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7272,10 +14194,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7286,7 +14208,7 @@
         <v>91405</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7294,10 +14216,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7308,7 +14230,7 @@
         <v>99952</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7316,10 +14238,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7330,7 +14252,7 @@
         <v>91560</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7341,7 +14263,7 @@
         <v>91560</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7352,7 +14274,7 @@
         <v>91560</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7360,10 +14282,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7371,10 +14293,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7385,7 +14307,7 @@
         <v>91560</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7393,10 +14315,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7407,7 +14329,7 @@
         <v>91560</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7418,7 +14340,7 @@
         <v>91560</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7429,7 +14351,7 @@
         <v>91560</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7440,7 +14362,7 @@
         <v>91580</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7451,7 +14373,7 @@
         <v>91580</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7462,7 +14384,7 @@
         <v>91580</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7473,7 +14395,7 @@
         <v>91580</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7484,7 +14406,7 @@
         <v>91580</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7495,7 +14417,7 @@
         <v>91629</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7506,7 +14428,7 @@
         <v>91629</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7517,7 +14439,7 @@
         <v>91746</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7525,10 +14447,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7539,7 +14461,7 @@
         <v>92102</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7550,7 +14472,7 @@
         <v>92102</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7561,7 +14483,7 @@
         <v>92478</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7572,7 +14494,7 @@
         <v>92478</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7583,7 +14505,7 @@
         <v>94007</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7591,10 +14513,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7602,10 +14524,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7613,10 +14535,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7627,7 +14549,7 @@
         <v>94276</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7638,7 +14560,7 @@
         <v>94304</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7649,7 +14571,7 @@
         <v>94304</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7660,7 +14582,7 @@
         <v>94569</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7671,7 +14593,7 @@
         <v>94569</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -7682,7 +14604,7 @@
         <v>95124</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7690,10 +14612,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7704,7 +14626,7 @@
         <v>95233</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7715,7 +14637,7 @@
         <v>95233</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7726,7 +14648,7 @@
         <v>95233</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7737,7 +14659,7 @@
         <v>13590</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7748,7 +14670,7 @@
         <v>95410</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7759,7 +14681,7 @@
         <v>95410</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7770,7 +14692,7 @@
         <v>95410</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7781,7 +14703,7 @@
         <v>95410</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7792,7 +14714,7 @@
         <v>95625</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7800,10 +14722,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7811,10 +14733,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7825,7 +14747,7 @@
         <v>96816</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7836,7 +14758,7 @@
         <v>96816</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7847,7 +14769,7 @@
         <v>96816</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7858,7 +14780,7 @@
         <v>96816</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7866,10 +14788,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7880,7 +14802,7 @@
         <v>97047</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7891,7 +14813,7 @@
         <v>97047</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7899,10 +14821,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7913,7 +14835,7 @@
         <v>97050</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7924,7 +14846,7 @@
         <v>97050</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7935,7 +14857,7 @@
         <v>97221</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7946,7 +14868,7 @@
         <v>97222</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7957,7 +14879,7 @@
         <v>98111</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7968,7 +14890,7 @@
         <v>98304</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7979,7 +14901,7 @@
         <v>98449</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7990,7 +14912,7 @@
         <v>98502</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7998,10 +14920,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8009,10 +14931,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8020,10 +14942,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="C82" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8034,7 +14956,7 @@
         <v>98806</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8045,7 +14967,7 @@
         <v>98884</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8056,7 +14978,7 @@
         <v>98967</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8067,7 +14989,7 @@
         <v>99080</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8075,10 +14997,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8089,7 +15011,7 @@
         <v>99505</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8100,7 +15022,7 @@
         <v>99507</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8111,7 +15033,7 @@
         <v>99507</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8122,7 +15044,7 @@
         <v>99955</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8130,10 +15052,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8141,10 +15063,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8152,10 +15074,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8166,11 +15088,11 @@
         <v>91581</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D95" xr:uid="{C7932169-27E9-4B7E-AB89-3F8F690BAF6B}"/>
+  <autoFilter ref="A1:D95" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>